--- a/GTEx Consortium Member List_September 2016_CT_updated.format_cc.xlsx
+++ b/GTEx Consortium Member List_September 2016_CT_updated.format_cc.xlsx
@@ -487,9 +487,6 @@
   </si>
   <si>
     <t>Gene</t>
-  </si>
-  <si>
-    <t>Deigo</t>
   </si>
   <si>
     <t>Kopen</t>
@@ -2048,6 +2045,9 @@
       </rPr>
       <t>Spain</t>
     </r>
+  </si>
+  <si>
+    <t>Diego</t>
   </si>
 </sst>
 </file>
@@ -2506,7 +2506,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2739,6 +2739,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="107">
@@ -3118,7 +3121,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3129,8 +3132,8 @@
   <dimension ref="A1:O233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D1:D1048576"/>
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3146,7 +3149,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="46.25" customHeight="1">
       <c r="A1" s="76" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -3165,18 +3168,18 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -3195,7 +3198,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -3209,7 +3212,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>9</v>
@@ -3227,7 +3230,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -3243,7 +3246,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -3257,7 +3260,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -3273,7 +3276,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -3287,7 +3290,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -3303,7 +3306,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -3319,7 +3322,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -3335,7 +3338,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>34</v>
@@ -3351,7 +3354,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>34</v>
@@ -3438,13 +3441,13 @@
     </row>
     <row r="20" spans="1:6" ht="45" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>6</v>
@@ -3456,7 +3459,7 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" customHeight="1">
       <c r="A21" s="67" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B21" s="52"/>
       <c r="C21" s="53"/>
@@ -3509,7 +3512,7 @@
         <v>74</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -3558,7 +3561,7 @@
         <v>86</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>90</v>
@@ -3718,7 +3721,7 @@
         <v>86</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>90</v>
@@ -3745,7 +3748,7 @@
         <v>86</v>
       </c>
       <c r="E38" s="64" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>90</v>
@@ -3763,7 +3766,7 @@
         <v>86</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>90</v>
@@ -3790,7 +3793,7 @@
         <v>86</v>
       </c>
       <c r="E40" s="64" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>90</v>
@@ -3808,7 +3811,7 @@
         <v>86</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>90</v>
@@ -3857,7 +3860,7 @@
         <v>144</v>
       </c>
       <c r="D43" s="66" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>145</v>
@@ -3884,13 +3887,13 @@
         <v>150</v>
       </c>
       <c r="D44" s="66" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>145</v>
       </c>
       <c r="F44" s="66" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -3911,7 +3914,7 @@
         <v>152</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>153</v>
@@ -3928,15 +3931,15 @@
       <c r="O45" s="6"/>
     </row>
     <row r="46" spans="1:15" ht="35.5" customHeight="1">
-      <c r="A46" s="16" t="s">
-        <v>155</v>
+      <c r="A46" s="85" t="s">
+        <v>537</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D46" s="66" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>145</v>
@@ -3945,14 +3948,14 @@
     </row>
     <row r="47" spans="1:15" ht="33.5" customHeight="1">
       <c r="A47" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D47" s="66" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>145</v>
@@ -3961,14 +3964,14 @@
     </row>
     <row r="48" spans="1:15" ht="33" customHeight="1">
       <c r="A48" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="66" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>145</v>
@@ -3977,14 +3980,14 @@
     </row>
     <row r="49" spans="1:15" ht="32" customHeight="1">
       <c r="A49" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D49" s="66" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E49" s="22" t="s">
         <v>145</v>
@@ -3993,14 +3996,14 @@
     </row>
     <row r="50" spans="1:15" ht="24">
       <c r="A50" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D50" s="66" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E50" s="22" t="s">
         <v>145</v>
@@ -4009,13 +4012,13 @@
     </row>
     <row r="51" spans="1:15" ht="36">
       <c r="A51" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>172</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>96</v>
@@ -4025,108 +4028,108 @@
     </row>
     <row r="52" spans="1:15" ht="29" customHeight="1">
       <c r="A52" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C52" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>177</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:15" ht="29" customHeight="1">
       <c r="A53" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:15" ht="32" customHeight="1">
       <c r="A54" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:15" ht="29.5" customHeight="1">
       <c r="A55" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:15" ht="31.25" customHeight="1">
       <c r="A56" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>188</v>
-      </c>
       <c r="D56" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F56" s="13"/>
     </row>
     <row r="57" spans="1:15" ht="32" customHeight="1">
       <c r="A57" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
     <row r="58" spans="1:15" ht="33" customHeight="1">
       <c r="A58" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
@@ -4139,44 +4142,44 @@
         <v>22</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F59" s="13"/>
     </row>
     <row r="60" spans="1:15" ht="33" customHeight="1">
       <c r="A60" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F60" s="13"/>
     </row>
     <row r="61" spans="1:15" ht="32" customHeight="1">
       <c r="A61" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="C61" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="C61" s="23" t="s">
-        <v>204</v>
-      </c>
       <c r="D61" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
@@ -4192,14 +4195,14 @@
     </row>
     <row r="62" spans="1:15" ht="32" customHeight="1">
       <c r="A62" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
@@ -4215,11 +4218,11 @@
     </row>
     <row r="63" spans="1:15" ht="33" customHeight="1">
       <c r="A63" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>119</v>
@@ -4238,16 +4241,16 @@
     </row>
     <row r="64" spans="1:15" ht="31.25" customHeight="1">
       <c r="A64" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B64" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
@@ -4263,14 +4266,14 @@
     </row>
     <row r="65" spans="1:15" ht="32" customHeight="1">
       <c r="A65" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
@@ -4286,50 +4289,50 @@
     </row>
     <row r="66" spans="1:15" ht="31.25" customHeight="1">
       <c r="A66" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D66" s="66" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F66" s="14"/>
     </row>
     <row r="67" spans="1:15" ht="30.5" customHeight="1">
       <c r="A67" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C67" s="14" t="s">
+      <c r="D67" s="66" t="s">
+        <v>516</v>
+      </c>
+      <c r="E67" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="D67" s="66" t="s">
-        <v>517</v>
-      </c>
-      <c r="E67" s="14" t="s">
+      <c r="F67" s="14" t="s">
         <v>229</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="35.5" customHeight="1">
       <c r="A68" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="14"/>
@@ -4340,216 +4343,216 @@
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D69" s="66" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
     </row>
     <row r="70" spans="1:15" ht="69" customHeight="1">
       <c r="A70" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D70" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E70" s="24" t="s">
         <v>247</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>248</v>
       </c>
       <c r="F70" s="14"/>
     </row>
     <row r="71" spans="1:15" ht="48">
       <c r="A71" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
     </row>
     <row r="72" spans="1:15" ht="79.75" customHeight="1">
       <c r="A72" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D72" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="E72" s="24" t="s">
         <v>247</v>
-      </c>
-      <c r="E72" s="24" t="s">
-        <v>248</v>
       </c>
       <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:15" ht="44" customHeight="1">
       <c r="A73" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B73" s="14"/>
       <c r="C73" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>251</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
     </row>
     <row r="74" spans="1:15" ht="44" customHeight="1">
       <c r="A74" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:15" ht="42" customHeight="1">
       <c r="A75" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>111</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
     </row>
     <row r="76" spans="1:15" ht="41" customHeight="1">
       <c r="A76" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
     </row>
     <row r="77" spans="1:15" ht="30.5" customHeight="1">
       <c r="A77" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B77" s="15"/>
       <c r="C77" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
     </row>
     <row r="78" spans="1:15" ht="30.5" customHeight="1">
       <c r="A78" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
     </row>
     <row r="79" spans="1:15" ht="35" customHeight="1">
       <c r="A79" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B79" s="15"/>
       <c r="C79" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
     </row>
     <row r="80" spans="1:15" ht="44.5" customHeight="1">
       <c r="A80" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>280</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>281</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
     </row>
     <row r="81" spans="1:15" ht="42" customHeight="1">
       <c r="A81" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D81" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="E81" s="19" t="s">
         <v>287</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>288</v>
       </c>
       <c r="F81" s="19"/>
     </row>
     <row r="82" spans="1:15" s="12" customFormat="1" ht="42" customHeight="1">
       <c r="A82" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D82" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="D82" s="13" t="s">
-        <v>291</v>
-      </c>
       <c r="E82" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F82" s="13" t="s">
         <v>294</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>295</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -4563,14 +4566,14 @@
     </row>
     <row r="83" spans="1:15" s="12" customFormat="1" ht="40.75" customHeight="1">
       <c r="A83" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
@@ -4586,28 +4589,28 @@
     </row>
     <row r="84" spans="1:15" ht="46.25" customHeight="1">
       <c r="A84" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B84" s="28"/>
       <c r="C84" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
     </row>
     <row r="85" spans="1:15" s="12" customFormat="1" ht="43.25" customHeight="1">
       <c r="A85" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D85" s="13" t="s">
         <v>308</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>309</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
@@ -4623,14 +4626,14 @@
     </row>
     <row r="86" spans="1:15" s="12" customFormat="1" ht="43.25" customHeight="1">
       <c r="A86" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
@@ -4646,14 +4649,14 @@
     </row>
     <row r="87" spans="1:15" s="12" customFormat="1" ht="42.5" customHeight="1">
       <c r="A87" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D87" s="13" t="s">
         <v>320</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>321</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
@@ -4669,14 +4672,14 @@
     </row>
     <row r="88" spans="1:15" s="12" customFormat="1" ht="32.5" customHeight="1">
       <c r="A88" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
@@ -4692,14 +4695,14 @@
     </row>
     <row r="89" spans="1:15" s="12" customFormat="1" ht="35" customHeight="1">
       <c r="A89" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
@@ -4715,14 +4718,14 @@
     </row>
     <row r="90" spans="1:15" s="12" customFormat="1" ht="35" customHeight="1">
       <c r="A90" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
@@ -4738,14 +4741,14 @@
     </row>
     <row r="91" spans="1:15" s="12" customFormat="1" ht="44.5" customHeight="1">
       <c r="A91" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
@@ -4761,14 +4764,14 @@
     </row>
     <row r="92" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A92" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="D92" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>337</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
@@ -4784,7 +4787,7 @@
     </row>
     <row r="93" spans="1:15" s="12" customFormat="1" ht="30.75" customHeight="1">
       <c r="A93" s="71" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B93" s="72"/>
       <c r="C93" s="72"/>
@@ -4809,10 +4812,10 @@
         <v>88</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
@@ -4828,16 +4831,16 @@
     </row>
     <row r="95" spans="1:15" s="12" customFormat="1" ht="79.25" customHeight="1">
       <c r="A95" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B95" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="C95" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="D95" s="13" t="s">
         <v>353</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>354</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
@@ -4853,16 +4856,16 @@
     </row>
     <row r="96" spans="1:15" s="12" customFormat="1" ht="55.75" customHeight="1">
       <c r="A96" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="B96" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C96" s="13" t="s">
+      <c r="D96" s="46" t="s">
         <v>356</v>
-      </c>
-      <c r="D96" s="46" t="s">
-        <v>357</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
@@ -4878,14 +4881,14 @@
     </row>
     <row r="97" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A97" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
@@ -4901,14 +4904,14 @@
     </row>
     <row r="98" spans="1:15" s="12" customFormat="1" ht="28.25" customHeight="1">
       <c r="A98" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="D98" s="13" t="s">
         <v>368</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>369</v>
       </c>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
@@ -4931,7 +4934,7 @@
         <v>38</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E99" s="13" t="s">
         <v>6</v>
@@ -4949,14 +4952,14 @@
     </row>
     <row r="100" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A100" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
@@ -4976,10 +4979,10 @@
       </c>
       <c r="B101" s="13"/>
       <c r="C101" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
@@ -4995,14 +4998,14 @@
     </row>
     <row r="102" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A102" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B102" s="13"/>
       <c r="C102" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
@@ -5018,14 +5021,14 @@
     </row>
     <row r="103" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A103" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B103" s="13"/>
       <c r="C103" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
@@ -5041,17 +5044,17 @@
     </row>
     <row r="104" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A104" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B104" s="13"/>
       <c r="C104" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="E104" s="13" t="s">
         <v>387</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>388</v>
       </c>
       <c r="F104" s="13"/>
       <c r="G104" s="11"/>
@@ -5066,16 +5069,16 @@
     </row>
     <row r="105" spans="1:15" s="12" customFormat="1" ht="48">
       <c r="A105" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>111</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D105" s="46" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
@@ -5091,14 +5094,14 @@
     </row>
     <row r="106" spans="1:15" s="12" customFormat="1" ht="36">
       <c r="A106" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D106" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
@@ -5114,14 +5117,14 @@
     </row>
     <row r="107" spans="1:15" s="12" customFormat="1" ht="36">
       <c r="A107" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D107" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
@@ -5137,14 +5140,14 @@
     </row>
     <row r="108" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A108" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B108" s="22"/>
       <c r="C108" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D108" s="62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
@@ -5160,14 +5163,14 @@
     </row>
     <row r="109" spans="1:15" s="12" customFormat="1" ht="42.5" customHeight="1">
       <c r="A109" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B109" s="22"/>
       <c r="C109" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D109" s="62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
@@ -5183,14 +5186,14 @@
     </row>
     <row r="110" spans="1:15" s="12" customFormat="1" ht="42.5" customHeight="1">
       <c r="A110" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B110" s="13"/>
       <c r="C110" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D110" s="62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
@@ -5206,14 +5209,14 @@
     </row>
     <row r="111" spans="1:15" s="12" customFormat="1" ht="42.5" customHeight="1">
       <c r="A111" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B111" s="13"/>
       <c r="C111" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D111" s="62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
@@ -5229,14 +5232,14 @@
     </row>
     <row r="112" spans="1:15" s="12" customFormat="1" ht="44.5" customHeight="1">
       <c r="A112" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B112" s="13"/>
       <c r="C112" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D112" s="62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
@@ -5252,14 +5255,14 @@
     </row>
     <row r="113" spans="1:15" s="12" customFormat="1" ht="27.5" customHeight="1">
       <c r="A113" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B113" s="13"/>
       <c r="C113" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D113" s="62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
@@ -5275,14 +5278,14 @@
     </row>
     <row r="114" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A114" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D114" s="62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
@@ -5298,14 +5301,14 @@
     </row>
     <row r="115" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A115" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D115" s="62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
@@ -5321,14 +5324,14 @@
     </row>
     <row r="116" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A116" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D116" s="62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
@@ -5344,16 +5347,16 @@
     </row>
     <row r="117" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A117" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D117" s="62" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
@@ -5369,14 +5372,14 @@
     </row>
     <row r="118" spans="1:15" s="12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A118" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B118" s="13"/>
       <c r="C118" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D118" s="62" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
@@ -5392,16 +5395,16 @@
     </row>
     <row r="119" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A119" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D119" s="62" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
@@ -5417,125 +5420,125 @@
     </row>
     <row r="120" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A120" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B120" s="13"/>
       <c r="C120" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D120" s="62" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
     </row>
     <row r="121" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A121" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B121" s="13"/>
       <c r="C121" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D121" s="62" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
     </row>
     <row r="122" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A122" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B122" s="13"/>
       <c r="C122" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D122" s="62" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
     </row>
     <row r="123" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A123" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C123" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D123" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>177</v>
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
     </row>
     <row r="124" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A124" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B124" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B124" s="13" t="s">
+      <c r="C124" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C124" s="13" t="s">
-        <v>188</v>
-      </c>
       <c r="D124" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
     </row>
     <row r="125" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A125" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
     </row>
     <row r="126" spans="1:15" s="12" customFormat="1" ht="42.5" customHeight="1">
       <c r="A126" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B126" s="13"/>
       <c r="C126" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
     </row>
     <row r="127" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A127" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B127" s="13"/>
       <c r="C127" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E127" s="13"/>
       <c r="F127" s="13"/>
     </row>
     <row r="128" spans="1:15" s="12" customFormat="1" ht="12">
       <c r="A128" s="82" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B128" s="83"/>
       <c r="C128" s="83"/>
@@ -5554,14 +5557,14 @@
         <v>18</v>
       </c>
       <c r="D129" s="59" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E129" s="44"/>
       <c r="F129" s="14"/>
     </row>
     <row r="130" spans="1:6" s="12" customFormat="1" ht="12">
       <c r="A130" s="73" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B130" s="74"/>
       <c r="C130" s="75"/>
@@ -5580,7 +5583,7 @@
         <v>41</v>
       </c>
       <c r="D131" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E131" s="46"/>
       <c r="F131" s="43"/>
@@ -5594,7 +5597,7 @@
         <v>47</v>
       </c>
       <c r="D132" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E132" s="46"/>
       <c r="F132" s="43"/>
@@ -5608,7 +5611,7 @@
         <v>57</v>
       </c>
       <c r="D133" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E133" s="46"/>
       <c r="F133" s="43"/>
@@ -5624,7 +5627,7 @@
         <v>60</v>
       </c>
       <c r="D134" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E134" s="46"/>
       <c r="F134" s="43"/>
@@ -5640,7 +5643,7 @@
         <v>63</v>
       </c>
       <c r="D135" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E135" s="46"/>
       <c r="F135" s="43"/>
@@ -5663,7 +5666,7 @@
     </row>
     <row r="137" spans="1:6" ht="12">
       <c r="A137" s="73" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B137" s="74"/>
       <c r="C137" s="75"/>
@@ -5680,7 +5683,7 @@
         <v>83</v>
       </c>
       <c r="D138" s="60" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E138" s="46"/>
       <c r="F138" s="43"/>
@@ -5696,7 +5699,7 @@
         <v>89</v>
       </c>
       <c r="D139" s="60" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E139" s="46"/>
       <c r="F139" s="43"/>
@@ -5712,7 +5715,7 @@
         <v>95</v>
       </c>
       <c r="D140" s="60" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E140" s="46"/>
       <c r="F140" s="43"/>
@@ -5728,14 +5731,14 @@
         <v>102</v>
       </c>
       <c r="D141" s="60" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E141" s="46"/>
       <c r="F141" s="43"/>
     </row>
     <row r="142" spans="1:6" ht="54.5" customHeight="1">
       <c r="A142" s="73" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B142" s="74"/>
       <c r="C142" s="75"/>
@@ -5754,7 +5757,7 @@
         <v>112</v>
       </c>
       <c r="D143" s="60" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E143" s="46"/>
       <c r="F143" s="43"/>
@@ -5770,14 +5773,14 @@
         <v>122</v>
       </c>
       <c r="D144" s="60" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E144" s="46"/>
       <c r="F144" s="43"/>
     </row>
     <row r="145" spans="1:6" ht="50.5" customHeight="1">
       <c r="A145" s="80" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B145" s="81"/>
       <c r="C145" s="81"/>
@@ -5787,7 +5790,7 @@
     </row>
     <row r="146" spans="1:6" ht="29" customHeight="1">
       <c r="A146" s="64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B146" s="14" t="s">
         <v>127</v>
@@ -5796,14 +5799,14 @@
         <v>128</v>
       </c>
       <c r="D146" s="65" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="14"/>
     </row>
     <row r="147" spans="1:6" ht="28.25" customHeight="1">
       <c r="A147" s="68" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B147" s="33"/>
       <c r="C147" s="34"/>
@@ -5822,7 +5825,7 @@
         <v>140</v>
       </c>
       <c r="D148" s="63" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E148" s="46"/>
       <c r="F148" s="47"/>
@@ -5838,7 +5841,7 @@
         <v>149</v>
       </c>
       <c r="D149" s="63" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E149" s="46"/>
       <c r="F149" s="47"/>
@@ -5849,68 +5852,68 @@
       </c>
       <c r="B150" s="40"/>
       <c r="C150" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D150" s="63" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E150" s="46"/>
       <c r="F150" s="47"/>
     </row>
     <row r="151" spans="1:6" ht="30.5" customHeight="1">
       <c r="A151" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B151" s="40"/>
       <c r="C151" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D151" s="63" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E151" s="46"/>
       <c r="F151" s="47"/>
     </row>
     <row r="152" spans="1:6" ht="29.5" customHeight="1">
       <c r="A152" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B152" s="40"/>
       <c r="C152" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D152" s="63" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E152" s="46"/>
       <c r="F152" s="47"/>
     </row>
     <row r="153" spans="1:6" ht="24">
       <c r="A153" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B153" s="40"/>
       <c r="C153" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D153" s="63" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E153" s="46"/>
       <c r="F153" s="47"/>
     </row>
     <row r="154" spans="1:6" ht="24">
       <c r="A154" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B154" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C154" s="48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D154" s="63" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E154" s="46"/>
       <c r="F154" s="47"/>
@@ -5921,38 +5924,38 @@
       </c>
       <c r="B155" s="40"/>
       <c r="C155" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D155" s="63" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E155" s="46"/>
       <c r="F155" s="47"/>
     </row>
     <row r="156" spans="1:6" ht="12.75" customHeight="1">
       <c r="A156" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B156" s="40"/>
       <c r="C156" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D156" s="63" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E156" s="46"/>
       <c r="F156" s="47"/>
     </row>
     <row r="157" spans="1:6" ht="43.25" customHeight="1">
       <c r="A157" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B157" s="40"/>
       <c r="C157" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D157" s="63" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E157" s="46"/>
       <c r="F157" s="47"/>
@@ -5963,10 +5966,10 @@
       </c>
       <c r="B158" s="40"/>
       <c r="C158" s="48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D158" s="63" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E158" s="46"/>
       <c r="F158" s="47"/>
@@ -5977,103 +5980,103 @@
       </c>
       <c r="B159" s="40"/>
       <c r="C159" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D159" s="63" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E159" s="46"/>
       <c r="F159" s="47"/>
     </row>
     <row r="160" spans="1:6" ht="44" customHeight="1">
       <c r="A160" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="B160" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="B160" s="40" t="s">
+      <c r="C160" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="C160" s="48" t="s">
-        <v>216</v>
-      </c>
       <c r="D160" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E160" s="46"/>
       <c r="F160" s="47"/>
     </row>
     <row r="161" spans="1:6" ht="44.5" customHeight="1">
       <c r="A161" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B161" s="40"/>
       <c r="C161" s="48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D161" s="63" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E161" s="46"/>
       <c r="F161" s="47"/>
     </row>
     <row r="162" spans="1:6" ht="24">
       <c r="A162" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B162" s="40"/>
       <c r="C162" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D162" s="63" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E162" s="46"/>
       <c r="F162" s="47"/>
     </row>
     <row r="163" spans="1:6" ht="12.75" customHeight="1">
       <c r="A163" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B163" s="40"/>
       <c r="C163" s="48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D163" s="63" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E163" s="46"/>
       <c r="F163" s="47"/>
     </row>
     <row r="164" spans="1:6" ht="12.75" customHeight="1">
       <c r="A164" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B164" s="40"/>
       <c r="C164" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D164" s="63" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E164" s="46"/>
       <c r="F164" s="47"/>
     </row>
     <row r="165" spans="1:6" ht="27" customHeight="1">
       <c r="A165" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B165" s="40"/>
       <c r="C165" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D165" s="63" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E165" s="46"/>
       <c r="F165" s="47"/>
     </row>
     <row r="166" spans="1:6" ht="27.5" customHeight="1">
       <c r="A166" s="68" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B166" s="33"/>
       <c r="C166" s="34"/>
@@ -6083,16 +6086,16 @@
     </row>
     <row r="167" spans="1:6" ht="28.25" customHeight="1">
       <c r="A167" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B167" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D167" s="60" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E167" s="46"/>
       <c r="F167" s="43"/>
@@ -6105,89 +6108,89 @@
         <v>11</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D168" s="60" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E168" s="46"/>
       <c r="F168" s="43"/>
     </row>
     <row r="169" spans="1:6" ht="12.75" customHeight="1">
       <c r="A169" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B169" s="14"/>
       <c r="C169" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D169" s="60" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E169" s="46"/>
       <c r="F169" s="43"/>
     </row>
     <row r="170" spans="1:6" ht="45.5" customHeight="1">
       <c r="A170" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D170" s="60" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E170" s="46"/>
       <c r="F170" s="43"/>
     </row>
     <row r="171" spans="1:6" ht="43.25" customHeight="1">
       <c r="A171" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" s="14"/>
       <c r="C171" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D171" s="60" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E171" s="46"/>
       <c r="F171" s="43"/>
     </row>
     <row r="172" spans="1:6" ht="12.75" customHeight="1">
       <c r="A172" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B172" s="14"/>
       <c r="C172" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="D172" s="36" t="s">
         <v>271</v>
-      </c>
-      <c r="D172" s="36" t="s">
-        <v>272</v>
       </c>
       <c r="E172" s="46"/>
       <c r="F172" s="43"/>
     </row>
     <row r="173" spans="1:6" ht="12">
       <c r="A173" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B173" s="14"/>
       <c r="C173" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D173" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E173" s="46"/>
       <c r="F173" s="43"/>
     </row>
     <row r="174" spans="1:6" ht="12">
       <c r="A174" s="73" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B174" s="74"/>
       <c r="C174" s="75"/>
@@ -6197,16 +6200,16 @@
     </row>
     <row r="175" spans="1:6" ht="12.75" customHeight="1">
       <c r="A175" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B175" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B175" s="14" t="s">
+      <c r="C175" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="C175" s="14" t="s">
-        <v>284</v>
-      </c>
       <c r="D175" s="60" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E175" s="46"/>
       <c r="F175" s="43"/>
@@ -6216,50 +6219,50 @@
         <v>32</v>
       </c>
       <c r="B176" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C176" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="C176" s="14" t="s">
-        <v>293</v>
-      </c>
       <c r="D176" s="60" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E176" s="46"/>
       <c r="F176" s="43"/>
     </row>
     <row r="177" spans="1:6" ht="12.75" customHeight="1">
       <c r="A177" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B177" s="14"/>
       <c r="C177" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D177" s="60" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E177" s="46"/>
       <c r="F177" s="43"/>
     </row>
     <row r="178" spans="1:6" ht="12.75" customHeight="1">
       <c r="A178" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B178" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="B178" s="14" t="s">
+      <c r="C178" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="C178" s="14" t="s">
-        <v>302</v>
-      </c>
       <c r="D178" s="60" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E178" s="46"/>
       <c r="F178" s="43"/>
     </row>
     <row r="179" spans="1:6" ht="13.25" customHeight="1">
       <c r="A179" s="73" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B179" s="74"/>
       <c r="C179" s="75"/>
@@ -6269,39 +6272,39 @@
     </row>
     <row r="180" spans="1:6" ht="12.75" customHeight="1">
       <c r="A180" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B180" s="14" t="s">
         <v>100</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D180" s="60" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E180" s="46"/>
       <c r="F180" s="43"/>
     </row>
     <row r="181" spans="1:6" ht="27" customHeight="1">
       <c r="A181" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D181" s="60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E181" s="46"/>
       <c r="F181" s="43"/>
     </row>
     <row r="182" spans="1:6" ht="12.75" customHeight="1">
       <c r="A182" s="73" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B182" s="74"/>
       <c r="C182" s="75"/>
@@ -6311,64 +6314,64 @@
     </row>
     <row r="183" spans="1:6" ht="12.75" customHeight="1">
       <c r="A183" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D183" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E183" s="46"/>
       <c r="F183" s="43"/>
     </row>
     <row r="184" spans="1:6" ht="12.75" customHeight="1">
       <c r="A184" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B184" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D184" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E184" s="46"/>
       <c r="F184" s="43"/>
     </row>
     <row r="185" spans="1:6" ht="12.75" customHeight="1">
       <c r="A185" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B185" s="14" t="s">
         <v>111</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D185" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E185" s="46"/>
       <c r="F185" s="43"/>
     </row>
     <row r="186" spans="1:6" ht="12.75" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B186" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D186" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E186" s="46"/>
       <c r="F186" s="43"/>
@@ -6381,193 +6384,193 @@
         <v>30</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D187" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E187" s="46"/>
       <c r="F187" s="43"/>
     </row>
     <row r="188" spans="1:6" ht="12.75" customHeight="1">
       <c r="A188" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B188" s="14"/>
       <c r="C188" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D188" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E188" s="46"/>
       <c r="F188" s="43"/>
     </row>
     <row r="189" spans="1:6" ht="12.5" customHeight="1">
       <c r="A189" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B189" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C189" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D189" s="36" t="s">
         <v>339</v>
-      </c>
-      <c r="D189" s="36" t="s">
-        <v>340</v>
       </c>
       <c r="E189" s="46"/>
       <c r="F189" s="43"/>
     </row>
     <row r="190" spans="1:6" ht="12.75" customHeight="1">
       <c r="A190" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B190" s="14"/>
       <c r="C190" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D190" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E190" s="46"/>
       <c r="F190" s="43"/>
     </row>
     <row r="191" spans="1:6" ht="41.5" customHeight="1">
       <c r="A191" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B191" s="14" t="s">
         <v>111</v>
       </c>
       <c r="C191" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="D191" s="36" t="s">
         <v>344</v>
-      </c>
-      <c r="D191" s="36" t="s">
-        <v>345</v>
       </c>
       <c r="E191" s="46"/>
       <c r="F191" s="43"/>
     </row>
     <row r="192" spans="1:6" ht="29.5" customHeight="1">
       <c r="A192" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B192" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D192" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E192" s="46"/>
       <c r="F192" s="43"/>
     </row>
     <row r="193" spans="1:6" ht="35" customHeight="1">
       <c r="A193" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B193" s="14"/>
       <c r="C193" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D193" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E193" s="46"/>
       <c r="F193" s="43"/>
     </row>
     <row r="194" spans="1:6" ht="32" customHeight="1">
       <c r="A194" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B194" s="14"/>
       <c r="C194" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D194" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E194" s="46"/>
       <c r="F194" s="43"/>
     </row>
     <row r="195" spans="1:6" ht="12.75" customHeight="1">
       <c r="A195" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B195" s="14"/>
       <c r="C195" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D195" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E195" s="46"/>
       <c r="F195" s="43"/>
     </row>
     <row r="196" spans="1:6" ht="12">
       <c r="A196" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B196" s="14"/>
       <c r="C196" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D196" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E196" s="46"/>
       <c r="F196" s="43"/>
     </row>
     <row r="197" spans="1:6" ht="12">
       <c r="A197" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B197" s="14"/>
       <c r="C197" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D197" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E197" s="46"/>
       <c r="F197" s="43"/>
     </row>
     <row r="198" spans="1:6" ht="12">
       <c r="A198" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B198" s="19"/>
       <c r="C198" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D198" s="56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E198" s="57"/>
       <c r="F198" s="58"/>
     </row>
     <row r="199" spans="1:6" ht="12">
       <c r="A199" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B199" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D199" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E199" s="46"/>
       <c r="F199" s="13"/>
     </row>
     <row r="200" spans="1:6" ht="12">
       <c r="A200" s="77" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B200" s="78"/>
       <c r="C200" s="79"/>
@@ -6577,69 +6580,69 @@
     </row>
     <row r="201" spans="1:6" ht="12">
       <c r="A201" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B201" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C201" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D201" s="61" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E201" s="46"/>
       <c r="F201" s="43"/>
     </row>
     <row r="202" spans="1:6" ht="24">
       <c r="A202" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B202" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C202" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="D202" s="42" t="s">
         <v>380</v>
-      </c>
-      <c r="D202" s="42" t="s">
-        <v>381</v>
       </c>
       <c r="E202" s="46"/>
       <c r="F202" s="43"/>
     </row>
     <row r="203" spans="1:6" ht="12.75" customHeight="1">
       <c r="A203" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B203" s="14"/>
       <c r="C203" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D203" s="41" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E203" s="46"/>
       <c r="F203" s="43"/>
     </row>
     <row r="204" spans="1:6" ht="32" customHeight="1">
       <c r="A204" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C204" s="36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D204" s="61" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E204" s="46"/>
       <c r="F204" s="43"/>
     </row>
     <row r="205" spans="1:6" ht="29.5" customHeight="1">
       <c r="A205" s="68" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B205" s="33"/>
       <c r="C205" s="34"/>
@@ -6649,16 +6652,16 @@
     </row>
     <row r="206" spans="1:6" ht="29" customHeight="1">
       <c r="A206" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B206" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C206" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D206" s="36" t="s">
         <v>398</v>
-      </c>
-      <c r="D206" s="36" t="s">
-        <v>399</v>
       </c>
       <c r="E206" s="46"/>
       <c r="F206" s="43"/>
@@ -6669,87 +6672,87 @@
       </c>
       <c r="B207" s="14"/>
       <c r="C207" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D207" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E207" s="46"/>
       <c r="F207" s="43"/>
     </row>
     <row r="208" spans="1:6" ht="30" customHeight="1">
       <c r="A208" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B208" s="14"/>
       <c r="C208" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D208" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E208" s="46"/>
       <c r="F208" s="43"/>
     </row>
     <row r="209" spans="1:6" ht="27" customHeight="1">
       <c r="A209" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B209" s="14"/>
       <c r="C209" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D209" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E209" s="46"/>
       <c r="F209" s="43"/>
     </row>
     <row r="210" spans="1:6" ht="26" customHeight="1">
       <c r="A210" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B210" s="14"/>
       <c r="C210" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D210" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E210" s="46"/>
       <c r="F210" s="43"/>
     </row>
     <row r="211" spans="1:6" ht="30" customHeight="1">
       <c r="A211" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B211" s="14"/>
       <c r="C211" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D211" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E211" s="46"/>
       <c r="F211" s="43"/>
     </row>
     <row r="212" spans="1:6" ht="29" customHeight="1">
       <c r="A212" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B212" s="14"/>
       <c r="C212" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D212" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E212" s="46"/>
       <c r="F212" s="43"/>
     </row>
     <row r="213" spans="1:6" ht="15.5" customHeight="1">
       <c r="A213" s="68" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B213" s="33"/>
       <c r="C213" s="34"/>
@@ -6759,137 +6762,137 @@
     </row>
     <row r="214" spans="1:6" ht="41.5" customHeight="1">
       <c r="A214" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B214" s="14"/>
       <c r="C214" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="D214" s="38" t="s">
         <v>417</v>
-      </c>
-      <c r="D214" s="38" t="s">
-        <v>418</v>
       </c>
       <c r="E214" s="46"/>
       <c r="F214" s="43"/>
     </row>
     <row r="215" spans="1:6" ht="43.25" customHeight="1">
       <c r="A215" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B215" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D215" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E215" s="46"/>
       <c r="F215" s="43"/>
     </row>
     <row r="216" spans="1:6" ht="35" customHeight="1">
       <c r="A216" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B216" s="14"/>
       <c r="C216" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D216" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E216" s="46"/>
       <c r="F216" s="43"/>
     </row>
     <row r="217" spans="1:6" ht="44.5" customHeight="1">
       <c r="A217" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B217" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D217" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E217" s="46"/>
       <c r="F217" s="43"/>
     </row>
     <row r="218" spans="1:6" ht="31.25" customHeight="1">
       <c r="A218" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B218" s="14"/>
       <c r="C218" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D218" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E218" s="46"/>
       <c r="F218" s="43"/>
     </row>
     <row r="219" spans="1:6" ht="32.5" customHeight="1">
       <c r="A219" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B219" s="14"/>
       <c r="C219" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D219" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E219" s="46"/>
       <c r="F219" s="43"/>
     </row>
     <row r="220" spans="1:6" ht="32" customHeight="1">
       <c r="A220" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B220" s="14"/>
       <c r="C220" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D220" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E220" s="46"/>
       <c r="F220" s="43"/>
     </row>
     <row r="221" spans="1:6" ht="30.5" customHeight="1">
       <c r="A221" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B221" s="14"/>
       <c r="C221" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D221" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E221" s="46"/>
       <c r="F221" s="43"/>
     </row>
     <row r="222" spans="1:6" ht="43.25" customHeight="1">
       <c r="A222" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B222" s="14"/>
       <c r="C222" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D222" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E222" s="46"/>
       <c r="F222" s="43"/>
     </row>
     <row r="223" spans="1:6" ht="12.75" customHeight="1">
       <c r="A223" s="68" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B223" s="8"/>
       <c r="C223" s="9"/>
@@ -6899,33 +6902,33 @@
     </row>
     <row r="224" spans="1:6" ht="13.5" customHeight="1">
       <c r="A224" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B224" s="14"/>
       <c r="C224" s="36" t="s">
         <v>25</v>
       </c>
       <c r="D224" s="43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E224" s="36"/>
       <c r="F224" s="37"/>
     </row>
     <row r="225" spans="1:15" s="12" customFormat="1" ht="36">
       <c r="A225" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="B225" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C225" s="36" t="s">
         <v>452</v>
       </c>
-      <c r="B225" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="C225" s="36" t="s">
+      <c r="D225" s="43" t="s">
         <v>453</v>
       </c>
-      <c r="D225" s="43" t="s">
+      <c r="E225" s="36" t="s">
         <v>454</v>
-      </c>
-      <c r="E225" s="36" t="s">
-        <v>455</v>
       </c>
       <c r="F225" s="37"/>
       <c r="G225" s="11"/>
@@ -6940,17 +6943,17 @@
     </row>
     <row r="226" spans="1:15" s="12" customFormat="1" ht="31.25" customHeight="1">
       <c r="A226" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B226" s="15"/>
       <c r="C226" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="D226" s="49" t="s">
         <v>457</v>
       </c>
-      <c r="D226" s="49" t="s">
+      <c r="E226" s="38" t="s">
         <v>458</v>
-      </c>
-      <c r="E226" s="38" t="s">
-        <v>459</v>
       </c>
       <c r="F226" s="37"/>
       <c r="G226" s="11"/>
@@ -6965,16 +6968,16 @@
     </row>
     <row r="227" spans="1:15" s="12" customFormat="1" ht="69.5" customHeight="1">
       <c r="A227" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B227" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C227" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="D227" s="24" t="s">
         <v>460</v>
-      </c>
-      <c r="D227" s="24" t="s">
-        <v>461</v>
       </c>
       <c r="E227" s="38"/>
       <c r="F227" s="37"/>
@@ -6990,14 +6993,14 @@
     </row>
     <row r="228" spans="1:15" s="12" customFormat="1" ht="42.5" customHeight="1">
       <c r="A228" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B228" s="15"/>
       <c r="C228" s="38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D228" s="49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E228" s="38"/>
       <c r="F228" s="37"/>
@@ -7013,14 +7016,14 @@
     </row>
     <row r="229" spans="1:15" s="12" customFormat="1" ht="30.5" customHeight="1">
       <c r="A229" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B229" s="15"/>
       <c r="C229" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D229" s="49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E229" s="38"/>
       <c r="F229" s="37"/>
@@ -7036,16 +7039,16 @@
     </row>
     <row r="230" spans="1:15" s="12" customFormat="1" ht="28.5" customHeight="1">
       <c r="A230" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B230" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C230" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="D230" s="49" t="s">
         <v>467</v>
-      </c>
-      <c r="D230" s="49" t="s">
-        <v>468</v>
       </c>
       <c r="E230" s="38"/>
       <c r="F230" s="37"/>
@@ -7061,14 +7064,14 @@
     </row>
     <row r="231" spans="1:15" s="12" customFormat="1" ht="32" customHeight="1">
       <c r="A231" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B231" s="15"/>
       <c r="C231" s="38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D231" s="49" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E231" s="38"/>
       <c r="F231" s="37"/>
@@ -7088,10 +7091,10 @@
       </c>
       <c r="B232" s="15"/>
       <c r="C232" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="D232" s="49" t="s">
         <v>471</v>
-      </c>
-      <c r="D232" s="49" t="s">
-        <v>472</v>
       </c>
       <c r="E232" s="38"/>
       <c r="F232" s="37"/>
@@ -7107,16 +7110,16 @@
     </row>
     <row r="233" spans="1:15" s="12" customFormat="1" ht="28.25" customHeight="1">
       <c r="A233" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B233" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C233" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="D233" s="49" t="s">
         <v>474</v>
-      </c>
-      <c r="D233" s="49" t="s">
-        <v>475</v>
       </c>
       <c r="E233" s="38"/>
       <c r="F233" s="37"/>

--- a/GTEx Consortium Member List_September 2016_CT_updated.format_cc.xlsx
+++ b/GTEx Consortium Member List_September 2016_CT_updated.format_cc.xlsx
@@ -1128,9 +1128,6 @@
     <t>Akey</t>
   </si>
   <si>
-    <t>Department of Genome Sciences, University of Washington, Seattle, WA, 98195</t>
-  </si>
-  <si>
     <t>Takunda</t>
   </si>
   <si>
@@ -1183,9 +1180,6 @@
   </si>
   <si>
     <t>Lin</t>
-  </si>
-  <si>
-    <t>Division of Cardiology, University of Washington, Seattle, WA, 98195</t>
   </si>
   <si>
     <t>Marian</t>
@@ -2048,6 +2042,12 @@
   </si>
   <si>
     <t>Diego</t>
+  </si>
+  <si>
+    <t>Department of Genome Sciences, University of Washington, Seattle, WA 98195</t>
+  </si>
+  <si>
+    <t>Division of Cardiology, University of Washington, Seattle, WA 98195</t>
   </si>
 </sst>
 </file>
@@ -2397,8 +2397,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2698,6 +2700,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2740,11 +2745,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2798,6 +2800,7 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2851,6 +2854,7 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3121,7 +3125,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3132,8 +3136,8 @@
   <dimension ref="A1:O233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <pane ySplit="2" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F206" sqref="F206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3148,14 +3152,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.25" customHeight="1">
-      <c r="A1" s="76" t="s">
-        <v>484</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
+      <c r="A1" s="77" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -3168,18 +3172,18 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -3198,7 +3202,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -3212,7 +3216,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>9</v>
@@ -3230,7 +3234,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -3246,7 +3250,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -3260,7 +3264,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -3276,7 +3280,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -3290,7 +3294,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -3306,7 +3310,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -3322,7 +3326,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -3338,7 +3342,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>34</v>
@@ -3354,7 +3358,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>34</v>
@@ -3441,13 +3445,13 @@
     </row>
     <row r="20" spans="1:6" ht="45" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>6</v>
@@ -3459,7 +3463,7 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" customHeight="1">
       <c r="A21" s="67" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B21" s="52"/>
       <c r="C21" s="53"/>
@@ -3512,7 +3516,7 @@
         <v>74</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -3561,7 +3565,7 @@
         <v>86</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>90</v>
@@ -3721,7 +3725,7 @@
         <v>86</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>90</v>
@@ -3748,7 +3752,7 @@
         <v>86</v>
       </c>
       <c r="E38" s="64" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>90</v>
@@ -3766,7 +3770,7 @@
         <v>86</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>90</v>
@@ -3793,7 +3797,7 @@
         <v>86</v>
       </c>
       <c r="E40" s="64" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>90</v>
@@ -3811,7 +3815,7 @@
         <v>86</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>90</v>
@@ -3860,7 +3864,7 @@
         <v>144</v>
       </c>
       <c r="D43" s="66" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>145</v>
@@ -3887,13 +3891,13 @@
         <v>150</v>
       </c>
       <c r="D44" s="66" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>145</v>
       </c>
       <c r="F44" s="66" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -3914,7 +3918,7 @@
         <v>152</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>153</v>
@@ -3931,15 +3935,15 @@
       <c r="O45" s="6"/>
     </row>
     <row r="46" spans="1:15" ht="35.5" customHeight="1">
-      <c r="A46" s="85" t="s">
-        <v>537</v>
+      <c r="A46" s="71" t="s">
+        <v>535</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="14" t="s">
         <v>156</v>
       </c>
       <c r="D46" s="66" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>145</v>
@@ -3955,7 +3959,7 @@
         <v>158</v>
       </c>
       <c r="D47" s="66" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>145</v>
@@ -3971,7 +3975,7 @@
         <v>160</v>
       </c>
       <c r="D48" s="66" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>145</v>
@@ -3987,7 +3991,7 @@
         <v>164</v>
       </c>
       <c r="D49" s="66" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E49" s="22" t="s">
         <v>145</v>
@@ -4003,7 +4007,7 @@
         <v>168</v>
       </c>
       <c r="D50" s="66" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E50" s="22" t="s">
         <v>145</v>
@@ -4158,7 +4162,7 @@
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>176</v>
@@ -4296,7 +4300,7 @@
         <v>222</v>
       </c>
       <c r="D66" s="66" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>225</v>
@@ -4314,7 +4318,7 @@
         <v>227</v>
       </c>
       <c r="D67" s="66" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>228</v>
@@ -4332,7 +4336,7 @@
         <v>232</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="14"/>
@@ -4346,7 +4350,7 @@
         <v>234</v>
       </c>
       <c r="D69" s="66" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
@@ -4488,7 +4492,7 @@
         <v>274</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
@@ -4718,11 +4722,11 @@
     </row>
     <row r="90" spans="1:15" s="12" customFormat="1" ht="35" customHeight="1">
       <c r="A90" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D90" s="13" t="s">
         <v>325</v>
@@ -4786,11 +4790,11 @@
       <c r="O92" s="11"/>
     </row>
     <row r="93" spans="1:15" s="12" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A93" s="71" t="s">
-        <v>533</v>
-      </c>
-      <c r="B93" s="72"/>
-      <c r="C93" s="72"/>
+      <c r="A93" s="72" t="s">
+        <v>531</v>
+      </c>
+      <c r="B93" s="73"/>
+      <c r="C93" s="73"/>
       <c r="D93" s="29"/>
       <c r="E93" s="29"/>
       <c r="F93" s="29"/>
@@ -4815,7 +4819,7 @@
         <v>347</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
@@ -4910,8 +4914,8 @@
       <c r="C98" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="D98" s="13" t="s">
-        <v>368</v>
+      <c r="D98" s="62" t="s">
+        <v>536</v>
       </c>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
@@ -4934,7 +4938,7 @@
         <v>38</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E99" s="13" t="s">
         <v>6</v>
@@ -4952,14 +4956,14 @@
     </row>
     <row r="100" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A100" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
@@ -4979,10 +4983,10 @@
       </c>
       <c r="B101" s="13"/>
       <c r="C101" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
@@ -4998,14 +5002,14 @@
     </row>
     <row r="102" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A102" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B102" s="13"/>
       <c r="C102" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
@@ -5021,14 +5025,14 @@
     </row>
     <row r="103" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A103" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B103" s="13"/>
       <c r="C103" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
@@ -5044,17 +5048,17 @@
     </row>
     <row r="104" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A104" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B104" s="13"/>
       <c r="C104" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>387</v>
+        <v>371</v>
+      </c>
+      <c r="E104" s="62" t="s">
+        <v>537</v>
       </c>
       <c r="F104" s="13"/>
       <c r="G104" s="11"/>
@@ -5078,7 +5082,7 @@
         <v>252</v>
       </c>
       <c r="D105" s="46" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
@@ -5094,14 +5098,14 @@
     </row>
     <row r="106" spans="1:15" s="12" customFormat="1" ht="36">
       <c r="A106" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D106" s="46" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
@@ -5117,14 +5121,14 @@
     </row>
     <row r="107" spans="1:15" s="12" customFormat="1" ht="36">
       <c r="A107" s="21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D107" s="46" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
@@ -5144,10 +5148,10 @@
       </c>
       <c r="B108" s="22"/>
       <c r="C108" s="22" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D108" s="62" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
@@ -5163,14 +5167,14 @@
     </row>
     <row r="109" spans="1:15" s="12" customFormat="1" ht="42.5" customHeight="1">
       <c r="A109" s="23" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B109" s="22"/>
       <c r="C109" s="22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D109" s="62" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
@@ -5186,14 +5190,14 @@
     </row>
     <row r="110" spans="1:15" s="12" customFormat="1" ht="42.5" customHeight="1">
       <c r="A110" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B110" s="13"/>
       <c r="C110" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D110" s="62" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
@@ -5213,10 +5217,10 @@
       </c>
       <c r="B111" s="13"/>
       <c r="C111" s="13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D111" s="62" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
@@ -5232,14 +5236,14 @@
     </row>
     <row r="112" spans="1:15" s="12" customFormat="1" ht="44.5" customHeight="1">
       <c r="A112" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B112" s="13"/>
       <c r="C112" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D112" s="62" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
@@ -5255,14 +5259,14 @@
     </row>
     <row r="113" spans="1:15" s="12" customFormat="1" ht="27.5" customHeight="1">
       <c r="A113" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B113" s="13"/>
       <c r="C113" s="13" t="s">
         <v>204</v>
       </c>
       <c r="D113" s="62" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
@@ -5278,14 +5282,14 @@
     </row>
     <row r="114" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A114" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D114" s="62" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
@@ -5301,14 +5305,14 @@
     </row>
     <row r="115" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A115" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D115" s="62" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
@@ -5324,14 +5328,14 @@
     </row>
     <row r="116" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A116" s="21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D116" s="62" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
@@ -5347,16 +5351,16 @@
     </row>
     <row r="117" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A117" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D117" s="62" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
@@ -5372,14 +5376,14 @@
     </row>
     <row r="118" spans="1:15" s="12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A118" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B118" s="13"/>
       <c r="C118" s="13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D118" s="62" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
@@ -5395,16 +5399,16 @@
     </row>
     <row r="119" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A119" s="21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D119" s="62" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
@@ -5420,49 +5424,49 @@
     </row>
     <row r="120" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A120" s="21" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B120" s="13"/>
       <c r="C120" s="13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D120" s="62" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
     </row>
     <row r="121" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A121" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B121" s="13"/>
       <c r="C121" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D121" s="62" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
     </row>
     <row r="122" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A122" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B122" s="13"/>
       <c r="C122" s="13" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D122" s="62" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
     </row>
     <row r="123" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A123" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>59</v>
@@ -5510,41 +5514,41 @@
     </row>
     <row r="126" spans="1:15" s="12" customFormat="1" ht="42.5" customHeight="1">
       <c r="A126" s="21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B126" s="13"/>
       <c r="C126" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
     </row>
     <row r="127" spans="1:15" s="12" customFormat="1" ht="24">
       <c r="A127" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B127" s="13"/>
       <c r="C127" s="13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E127" s="13"/>
       <c r="F127" s="13"/>
     </row>
     <row r="128" spans="1:15" s="12" customFormat="1" ht="12">
-      <c r="A128" s="82" t="s">
-        <v>518</v>
-      </c>
-      <c r="B128" s="83"/>
-      <c r="C128" s="83"/>
-      <c r="D128" s="83"/>
-      <c r="E128" s="83"/>
-      <c r="F128" s="84"/>
+      <c r="A128" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="B128" s="84"/>
+      <c r="C128" s="84"/>
+      <c r="D128" s="84"/>
+      <c r="E128" s="84"/>
+      <c r="F128" s="85"/>
     </row>
     <row r="129" spans="1:6" s="12" customFormat="1" ht="36">
       <c r="A129" s="44" t="s">
@@ -5557,17 +5561,17 @@
         <v>18</v>
       </c>
       <c r="D129" s="59" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E129" s="44"/>
       <c r="F129" s="14"/>
     </row>
     <row r="130" spans="1:6" s="12" customFormat="1" ht="12">
-      <c r="A130" s="73" t="s">
-        <v>519</v>
-      </c>
-      <c r="B130" s="74"/>
-      <c r="C130" s="75"/>
+      <c r="A130" s="74" t="s">
+        <v>517</v>
+      </c>
+      <c r="B130" s="75"/>
+      <c r="C130" s="76"/>
       <c r="D130" s="32"/>
       <c r="E130" s="35"/>
       <c r="F130" s="32"/>
@@ -5583,7 +5587,7 @@
         <v>41</v>
       </c>
       <c r="D131" s="36" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E131" s="46"/>
       <c r="F131" s="43"/>
@@ -5597,7 +5601,7 @@
         <v>47</v>
       </c>
       <c r="D132" s="36" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E132" s="46"/>
       <c r="F132" s="43"/>
@@ -5611,7 +5615,7 @@
         <v>57</v>
       </c>
       <c r="D133" s="36" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E133" s="46"/>
       <c r="F133" s="43"/>
@@ -5627,7 +5631,7 @@
         <v>60</v>
       </c>
       <c r="D134" s="36" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E134" s="46"/>
       <c r="F134" s="43"/>
@@ -5643,7 +5647,7 @@
         <v>63</v>
       </c>
       <c r="D135" s="36" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E135" s="46"/>
       <c r="F135" s="43"/>
@@ -5665,11 +5669,11 @@
       <c r="F136" s="43"/>
     </row>
     <row r="137" spans="1:6" ht="12">
-      <c r="A137" s="73" t="s">
-        <v>520</v>
-      </c>
-      <c r="B137" s="74"/>
-      <c r="C137" s="75"/>
+      <c r="A137" s="74" t="s">
+        <v>518</v>
+      </c>
+      <c r="B137" s="75"/>
+      <c r="C137" s="76"/>
       <c r="D137" s="32"/>
       <c r="E137" s="29"/>
       <c r="F137" s="32"/>
@@ -5683,7 +5687,7 @@
         <v>83</v>
       </c>
       <c r="D138" s="60" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E138" s="46"/>
       <c r="F138" s="43"/>
@@ -5699,7 +5703,7 @@
         <v>89</v>
       </c>
       <c r="D139" s="60" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E139" s="46"/>
       <c r="F139" s="43"/>
@@ -5715,7 +5719,7 @@
         <v>95</v>
       </c>
       <c r="D140" s="60" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E140" s="46"/>
       <c r="F140" s="43"/>
@@ -5731,17 +5735,17 @@
         <v>102</v>
       </c>
       <c r="D141" s="60" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E141" s="46"/>
       <c r="F141" s="43"/>
     </row>
     <row r="142" spans="1:6" ht="54.5" customHeight="1">
-      <c r="A142" s="73" t="s">
-        <v>521</v>
-      </c>
-      <c r="B142" s="74"/>
-      <c r="C142" s="75"/>
+      <c r="A142" s="74" t="s">
+        <v>519</v>
+      </c>
+      <c r="B142" s="75"/>
+      <c r="C142" s="76"/>
       <c r="D142" s="32"/>
       <c r="E142" s="29"/>
       <c r="F142" s="32"/>
@@ -5757,7 +5761,7 @@
         <v>112</v>
       </c>
       <c r="D143" s="60" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E143" s="46"/>
       <c r="F143" s="43"/>
@@ -5773,24 +5777,24 @@
         <v>122</v>
       </c>
       <c r="D144" s="60" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E144" s="46"/>
       <c r="F144" s="43"/>
     </row>
     <row r="145" spans="1:6" ht="50.5" customHeight="1">
-      <c r="A145" s="80" t="s">
-        <v>522</v>
-      </c>
-      <c r="B145" s="81"/>
-      <c r="C145" s="81"/>
+      <c r="A145" s="81" t="s">
+        <v>520</v>
+      </c>
+      <c r="B145" s="82"/>
+      <c r="C145" s="82"/>
       <c r="D145" s="35"/>
       <c r="E145" s="45"/>
       <c r="F145" s="32"/>
     </row>
     <row r="146" spans="1:6" ht="29" customHeight="1">
       <c r="A146" s="64" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B146" s="14" t="s">
         <v>127</v>
@@ -5799,14 +5803,14 @@
         <v>128</v>
       </c>
       <c r="D146" s="65" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="14"/>
     </row>
     <row r="147" spans="1:6" ht="28.25" customHeight="1">
       <c r="A147" s="68" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B147" s="33"/>
       <c r="C147" s="34"/>
@@ -5825,7 +5829,7 @@
         <v>140</v>
       </c>
       <c r="D148" s="63" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E148" s="46"/>
       <c r="F148" s="47"/>
@@ -5841,7 +5845,7 @@
         <v>149</v>
       </c>
       <c r="D149" s="63" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E149" s="46"/>
       <c r="F149" s="47"/>
@@ -5855,7 +5859,7 @@
         <v>155</v>
       </c>
       <c r="D150" s="63" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E150" s="46"/>
       <c r="F150" s="47"/>
@@ -5869,7 +5873,7 @@
         <v>162</v>
       </c>
       <c r="D151" s="63" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E151" s="46"/>
       <c r="F151" s="47"/>
@@ -5883,7 +5887,7 @@
         <v>167</v>
       </c>
       <c r="D152" s="63" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E152" s="46"/>
       <c r="F152" s="47"/>
@@ -5897,7 +5901,7 @@
         <v>173</v>
       </c>
       <c r="D153" s="63" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E153" s="46"/>
       <c r="F153" s="47"/>
@@ -5913,7 +5917,7 @@
         <v>182</v>
       </c>
       <c r="D154" s="63" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E154" s="46"/>
       <c r="F154" s="47"/>
@@ -5927,7 +5931,7 @@
         <v>188</v>
       </c>
       <c r="D155" s="63" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E155" s="46"/>
       <c r="F155" s="47"/>
@@ -5941,7 +5945,7 @@
         <v>196</v>
       </c>
       <c r="D156" s="63" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E156" s="46"/>
       <c r="F156" s="47"/>
@@ -5955,7 +5959,7 @@
         <v>200</v>
       </c>
       <c r="D157" s="63" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E157" s="46"/>
       <c r="F157" s="47"/>
@@ -5969,7 +5973,7 @@
         <v>204</v>
       </c>
       <c r="D158" s="63" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E158" s="46"/>
       <c r="F158" s="47"/>
@@ -5983,7 +5987,7 @@
         <v>208</v>
       </c>
       <c r="D159" s="63" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E159" s="46"/>
       <c r="F159" s="47"/>
@@ -5999,7 +6003,7 @@
         <v>215</v>
       </c>
       <c r="D160" s="63" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E160" s="46"/>
       <c r="F160" s="47"/>
@@ -6013,7 +6017,7 @@
         <v>220</v>
       </c>
       <c r="D161" s="63" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E161" s="46"/>
       <c r="F161" s="47"/>
@@ -6027,7 +6031,7 @@
         <v>224</v>
       </c>
       <c r="D162" s="63" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E162" s="46"/>
       <c r="F162" s="47"/>
@@ -6041,7 +6045,7 @@
         <v>233</v>
       </c>
       <c r="D163" s="63" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E163" s="46"/>
       <c r="F163" s="47"/>
@@ -6055,7 +6059,7 @@
         <v>236</v>
       </c>
       <c r="D164" s="63" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E164" s="46"/>
       <c r="F164" s="47"/>
@@ -6069,14 +6073,14 @@
         <v>242</v>
       </c>
       <c r="D165" s="63" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E165" s="46"/>
       <c r="F165" s="47"/>
     </row>
     <row r="166" spans="1:6" ht="27.5" customHeight="1">
       <c r="A166" s="68" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B166" s="33"/>
       <c r="C166" s="34"/>
@@ -6095,7 +6099,7 @@
         <v>253</v>
       </c>
       <c r="D167" s="60" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E167" s="46"/>
       <c r="F167" s="43"/>
@@ -6111,7 +6115,7 @@
         <v>254</v>
       </c>
       <c r="D168" s="60" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E168" s="46"/>
       <c r="F168" s="43"/>
@@ -6125,7 +6129,7 @@
         <v>257</v>
       </c>
       <c r="D169" s="60" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E169" s="46"/>
       <c r="F169" s="43"/>
@@ -6141,7 +6145,7 @@
         <v>261</v>
       </c>
       <c r="D170" s="60" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E170" s="46"/>
       <c r="F170" s="43"/>
@@ -6155,7 +6159,7 @@
         <v>266</v>
       </c>
       <c r="D171" s="60" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E171" s="46"/>
       <c r="F171" s="43"/>
@@ -6189,11 +6193,11 @@
       <c r="F173" s="43"/>
     </row>
     <row r="174" spans="1:6" ht="12">
-      <c r="A174" s="73" t="s">
-        <v>525</v>
-      </c>
-      <c r="B174" s="74"/>
-      <c r="C174" s="75"/>
+      <c r="A174" s="74" t="s">
+        <v>523</v>
+      </c>
+      <c r="B174" s="75"/>
+      <c r="C174" s="76"/>
       <c r="D174" s="32"/>
       <c r="E174" s="29"/>
       <c r="F174" s="32"/>
@@ -6209,7 +6213,7 @@
         <v>283</v>
       </c>
       <c r="D175" s="60" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E175" s="46"/>
       <c r="F175" s="43"/>
@@ -6225,7 +6229,7 @@
         <v>292</v>
       </c>
       <c r="D176" s="60" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E176" s="46"/>
       <c r="F176" s="43"/>
@@ -6239,7 +6243,7 @@
         <v>296</v>
       </c>
       <c r="D177" s="60" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E177" s="46"/>
       <c r="F177" s="43"/>
@@ -6255,17 +6259,17 @@
         <v>301</v>
       </c>
       <c r="D178" s="60" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E178" s="46"/>
       <c r="F178" s="43"/>
     </row>
     <row r="179" spans="1:6" ht="13.25" customHeight="1">
-      <c r="A179" s="73" t="s">
-        <v>526</v>
-      </c>
-      <c r="B179" s="74"/>
-      <c r="C179" s="75"/>
+      <c r="A179" s="74" t="s">
+        <v>524</v>
+      </c>
+      <c r="B179" s="75"/>
+      <c r="C179" s="76"/>
       <c r="D179" s="32"/>
       <c r="E179" s="29"/>
       <c r="F179" s="32"/>
@@ -6281,7 +6285,7 @@
         <v>304</v>
       </c>
       <c r="D180" s="60" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E180" s="46"/>
       <c r="F180" s="43"/>
@@ -6297,17 +6301,17 @@
         <v>184</v>
       </c>
       <c r="D181" s="60" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E181" s="46"/>
       <c r="F181" s="43"/>
     </row>
     <row r="182" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A182" s="73" t="s">
-        <v>527</v>
-      </c>
-      <c r="B182" s="74"/>
-      <c r="C182" s="75"/>
+      <c r="A182" s="74" t="s">
+        <v>525</v>
+      </c>
+      <c r="B182" s="75"/>
+      <c r="C182" s="76"/>
       <c r="D182" s="32"/>
       <c r="E182" s="29"/>
       <c r="F182" s="32"/>
@@ -6540,11 +6544,11 @@
     </row>
     <row r="198" spans="1:6" ht="12">
       <c r="A198" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B198" s="19"/>
       <c r="C198" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D198" s="56" t="s">
         <v>339</v>
@@ -6554,13 +6558,13 @@
     </row>
     <row r="199" spans="1:6" ht="12">
       <c r="A199" s="13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B199" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D199" s="13" t="s">
         <v>339</v>
@@ -6569,80 +6573,80 @@
       <c r="F199" s="13"/>
     </row>
     <row r="200" spans="1:6" ht="12">
-      <c r="A200" s="77" t="s">
-        <v>528</v>
-      </c>
-      <c r="B200" s="78"/>
-      <c r="C200" s="79"/>
+      <c r="A200" s="78" t="s">
+        <v>526</v>
+      </c>
+      <c r="B200" s="79"/>
+      <c r="C200" s="80"/>
       <c r="D200" s="29"/>
       <c r="E200" s="29"/>
       <c r="F200" s="45"/>
     </row>
     <row r="201" spans="1:6" ht="12">
       <c r="A201" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B201" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C201" s="36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D201" s="61" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E201" s="46"/>
       <c r="F201" s="43"/>
     </row>
     <row r="202" spans="1:6" ht="24">
       <c r="A202" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B202" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C202" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="D202" s="42" t="s">
         <v>379</v>
-      </c>
-      <c r="D202" s="42" t="s">
-        <v>380</v>
       </c>
       <c r="E202" s="46"/>
       <c r="F202" s="43"/>
     </row>
     <row r="203" spans="1:6" ht="12.75" customHeight="1">
       <c r="A203" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B203" s="14"/>
       <c r="C203" s="36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D203" s="41" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E203" s="46"/>
       <c r="F203" s="43"/>
     </row>
     <row r="204" spans="1:6" ht="32" customHeight="1">
       <c r="A204" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B204" s="14" t="s">
         <v>186</v>
       </c>
       <c r="C204" s="36" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D204" s="61" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E204" s="46"/>
       <c r="F204" s="43"/>
     </row>
     <row r="205" spans="1:6" ht="29.5" customHeight="1">
       <c r="A205" s="68" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B205" s="33"/>
       <c r="C205" s="34"/>
@@ -6652,16 +6656,16 @@
     </row>
     <row r="206" spans="1:6" ht="29" customHeight="1">
       <c r="A206" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B206" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D206" s="36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E206" s="46"/>
       <c r="F206" s="43"/>
@@ -6672,38 +6676,38 @@
       </c>
       <c r="B207" s="14"/>
       <c r="C207" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D207" s="36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E207" s="46"/>
       <c r="F207" s="43"/>
     </row>
     <row r="208" spans="1:6" ht="30" customHeight="1">
       <c r="A208" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B208" s="14"/>
       <c r="C208" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D208" s="36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E208" s="46"/>
       <c r="F208" s="43"/>
     </row>
     <row r="209" spans="1:6" ht="27" customHeight="1">
       <c r="A209" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B209" s="14"/>
       <c r="C209" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D209" s="36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E209" s="46"/>
       <c r="F209" s="43"/>
@@ -6714,45 +6718,45 @@
       </c>
       <c r="B210" s="14"/>
       <c r="C210" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D210" s="36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E210" s="46"/>
       <c r="F210" s="43"/>
     </row>
     <row r="211" spans="1:6" ht="30" customHeight="1">
       <c r="A211" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B211" s="14"/>
       <c r="C211" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D211" s="36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E211" s="46"/>
       <c r="F211" s="43"/>
     </row>
     <row r="212" spans="1:6" ht="29" customHeight="1">
       <c r="A212" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B212" s="14"/>
       <c r="C212" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D212" s="36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E212" s="46"/>
       <c r="F212" s="43"/>
     </row>
     <row r="213" spans="1:6" ht="15.5" customHeight="1">
       <c r="A213" s="68" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B213" s="33"/>
       <c r="C213" s="34"/>
@@ -6762,44 +6766,44 @@
     </row>
     <row r="214" spans="1:6" ht="41.5" customHeight="1">
       <c r="A214" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B214" s="14"/>
       <c r="C214" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D214" s="38" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E214" s="46"/>
       <c r="F214" s="43"/>
     </row>
     <row r="215" spans="1:6" ht="43.25" customHeight="1">
       <c r="A215" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B215" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D215" s="38" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E215" s="46"/>
       <c r="F215" s="43"/>
     </row>
     <row r="216" spans="1:6" ht="35" customHeight="1">
       <c r="A216" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B216" s="14"/>
       <c r="C216" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D216" s="38" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E216" s="46"/>
       <c r="F216" s="43"/>
@@ -6812,24 +6816,24 @@
         <v>40</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D217" s="38" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E217" s="46"/>
       <c r="F217" s="43"/>
     </row>
     <row r="218" spans="1:6" ht="31.25" customHeight="1">
       <c r="A218" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B218" s="14"/>
       <c r="C218" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D218" s="38" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E218" s="46"/>
       <c r="F218" s="43"/>
@@ -6840,24 +6844,24 @@
       </c>
       <c r="B219" s="14"/>
       <c r="C219" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D219" s="38" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E219" s="46"/>
       <c r="F219" s="43"/>
     </row>
     <row r="220" spans="1:6" ht="32" customHeight="1">
       <c r="A220" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B220" s="14"/>
       <c r="C220" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D220" s="38" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E220" s="46"/>
       <c r="F220" s="43"/>
@@ -6868,10 +6872,10 @@
       </c>
       <c r="B221" s="14"/>
       <c r="C221" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D221" s="38" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E221" s="46"/>
       <c r="F221" s="43"/>
@@ -6882,17 +6886,17 @@
       </c>
       <c r="B222" s="14"/>
       <c r="C222" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D222" s="38" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E222" s="46"/>
       <c r="F222" s="43"/>
     </row>
     <row r="223" spans="1:6" ht="12.75" customHeight="1">
       <c r="A223" s="68" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B223" s="8"/>
       <c r="C223" s="9"/>
@@ -6902,33 +6906,33 @@
     </row>
     <row r="224" spans="1:6" ht="13.5" customHeight="1">
       <c r="A224" s="16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B224" s="14"/>
       <c r="C224" s="36" t="s">
         <v>25</v>
       </c>
       <c r="D224" s="43" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E224" s="36"/>
       <c r="F224" s="37"/>
     </row>
     <row r="225" spans="1:15" s="12" customFormat="1" ht="36">
       <c r="A225" s="16" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B225" s="14" t="s">
         <v>300</v>
       </c>
       <c r="C225" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="D225" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="E225" s="36" t="s">
         <v>452</v>
-      </c>
-      <c r="D225" s="43" t="s">
-        <v>453</v>
-      </c>
-      <c r="E225" s="36" t="s">
-        <v>454</v>
       </c>
       <c r="F225" s="37"/>
       <c r="G225" s="11"/>
@@ -6943,17 +6947,17 @@
     </row>
     <row r="226" spans="1:15" s="12" customFormat="1" ht="31.25" customHeight="1">
       <c r="A226" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B226" s="15"/>
       <c r="C226" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="D226" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="E226" s="38" t="s">
         <v>456</v>
-      </c>
-      <c r="D226" s="49" t="s">
-        <v>457</v>
-      </c>
-      <c r="E226" s="38" t="s">
-        <v>458</v>
       </c>
       <c r="F226" s="37"/>
       <c r="G226" s="11"/>
@@ -6974,10 +6978,10 @@
         <v>11</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D227" s="24" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E227" s="38"/>
       <c r="F227" s="37"/>
@@ -6993,14 +6997,14 @@
     </row>
     <row r="228" spans="1:15" s="12" customFormat="1" ht="42.5" customHeight="1">
       <c r="A228" s="15" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B228" s="15"/>
       <c r="C228" s="38" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D228" s="49" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E228" s="38"/>
       <c r="F228" s="37"/>
@@ -7016,14 +7020,14 @@
     </row>
     <row r="229" spans="1:15" s="12" customFormat="1" ht="30.5" customHeight="1">
       <c r="A229" s="15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B229" s="15"/>
       <c r="C229" s="38" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D229" s="49" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E229" s="38"/>
       <c r="F229" s="37"/>
@@ -7039,16 +7043,16 @@
     </row>
     <row r="230" spans="1:15" s="12" customFormat="1" ht="28.5" customHeight="1">
       <c r="A230" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B230" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C230" s="38" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D230" s="49" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E230" s="38"/>
       <c r="F230" s="37"/>
@@ -7064,14 +7068,14 @@
     </row>
     <row r="231" spans="1:15" s="12" customFormat="1" ht="32" customHeight="1">
       <c r="A231" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B231" s="15"/>
       <c r="C231" s="38" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D231" s="49" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E231" s="38"/>
       <c r="F231" s="37"/>
@@ -7091,10 +7095,10 @@
       </c>
       <c r="B232" s="15"/>
       <c r="C232" s="38" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D232" s="49" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E232" s="38"/>
       <c r="F232" s="37"/>
@@ -7110,16 +7114,16 @@
     </row>
     <row r="233" spans="1:15" s="12" customFormat="1" ht="28.25" customHeight="1">
       <c r="A233" s="15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B233" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C233" s="38" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D233" s="49" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E233" s="38"/>
       <c r="F233" s="37"/>
